--- a/model_material/Viola_data/Viola_all_data.xlsx
+++ b/model_material/Viola_data/Viola_all_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="931" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="931" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Building_info_Viola" sheetId="8" r:id="rId1"/>
@@ -12,9 +12,6 @@
     <sheet name="Components_thickness" sheetId="10" r:id="rId3"/>
     <sheet name="Material-Intensity_heating" sheetId="6" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2361,442 +2358,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>MFH02</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>roof</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D29">
-            <v>0.105</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D30">
-            <v>0.30099999999999999</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>floor</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D31">
-            <v>0.19700000000000001</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D32">
-            <v>0.108</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>wall</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D33">
-            <v>0.121</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D34">
-            <v>0.128</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>MFH03</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>roof</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D36">
-            <v>0.11</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D37">
-            <v>0.17</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>floor</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D38">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D39">
-            <v>0.14099999999999999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>wall</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D40">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D41">
-            <v>0.115</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>MFH07</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>roof</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D43">
-            <v>0.11</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D44">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>floor</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D45">
-            <v>0.32</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D46">
-            <v>0.19</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>wall</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D47">
-            <v>0.21</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D48">
-            <v>0.21</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>MFH08</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>roof</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D50">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D51">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>floor</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D52">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D53">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54" t="str">
-            <v>wall</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D54">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D55">
-            <v>0.06</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>MFH10</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>roof</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D57">
-            <v>0.17</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D58">
-            <v>0.13</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>floor</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D59">
-            <v>0.18</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D60">
-            <v>0.19</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>wall</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D61">
-            <v>0.15</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D62">
-            <v>0.13</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>MFH11</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>roof</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D64">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D65">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>floor</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D66">
-            <v>0.16</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D67">
-            <v>0.09</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>wall</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D68">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D69">
-            <v>0.11</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>MFH12</v>
-          </cell>
-          <cell r="B71" t="str">
-            <v>roof</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D71">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D72">
-            <v>0.09</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>floor</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D73">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D74">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75" t="str">
-            <v>wall</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>reported</v>
-          </cell>
-          <cell r="D75">
-            <v>0.11</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76" t="str">
-            <v>calculated</v>
-          </cell>
-          <cell r="D76">
-            <v>0.27</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6230,9 +5791,9 @@
   </sheetPr>
   <dimension ref="A1:X378"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A26" sqref="A26:J51"/>
+      <selection pane="topRight" activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16037,7 +15598,7 @@
   </sheetPr>
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView zoomScale="105" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/model_material/Viola_data/Viola_all_data.xlsx
+++ b/model_material/Viola_data/Viola_all_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="931" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="931" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Building_info_Viola" sheetId="8" r:id="rId1"/>
@@ -1849,7 +1849,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2003,30 +2003,6 @@
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2229,7 +2205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2286,10 +2261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2304,6 +2276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2627,10 +2603,10 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,85 +2655,85 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="117" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="104" t="s">
         <v>529</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>536</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="112" t="s">
         <v>537</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="116" t="s">
         <v>538</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="112" t="s">
         <v>536</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="112" t="s">
         <v>536</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="116" t="s">
         <v>538</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="121" t="s">
         <v>536</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="112" t="s">
         <v>539</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="112" t="s">
         <v>540</v>
       </c>
-      <c r="K2" s="128" t="s">
+      <c r="K2" s="127" t="s">
         <v>536</v>
       </c>
-      <c r="L2" s="117" t="s">
+      <c r="L2" s="116" t="s">
         <v>538</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="112" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="117" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
         <v>530</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>531</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="118" t="s">
         <v>532</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="118" t="s">
         <v>533</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="118" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="118" t="s">
         <v>531</v>
       </c>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="118" t="s">
         <v>533</v>
       </c>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="122" t="s">
         <v>531</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="118" t="s">
         <v>534</v>
       </c>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="118" t="s">
         <v>535</v>
       </c>
-      <c r="K3" s="127" t="s">
+      <c r="K3" s="126" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="119" t="s">
+      <c r="L3" s="118" t="s">
         <v>533</v>
       </c>
-      <c r="M3" s="120" t="s">
+      <c r="M3" s="119" t="s">
         <v>534</v>
       </c>
     </row>
@@ -2893,7 +2869,7 @@
       <c r="L7" s="52"/>
       <c r="M7" s="53"/>
     </row>
-    <row r="8" spans="1:13" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="104" t="s">
         <v>43</v>
       </c>
@@ -2915,7 +2891,7 @@
       <c r="G8" s="105" t="s">
         <v>527</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="120" t="s">
         <v>524</v>
       </c>
       <c r="I8" s="105" t="s">
@@ -2924,13 +2900,13 @@
       <c r="J8" s="105" t="s">
         <v>528</v>
       </c>
-      <c r="K8" s="125" t="s">
+      <c r="K8" s="124" t="s">
         <v>523</v>
       </c>
       <c r="L8" s="105" t="s">
         <v>523</v>
       </c>
-      <c r="M8" s="112" t="s">
+      <c r="M8" s="111" t="s">
         <v>528</v>
       </c>
     </row>
@@ -3988,7 +3964,7 @@
       <c r="A39" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="B39" s="116"/>
+      <c r="B39" s="115"/>
       <c r="F39" s="55">
         <v>0.7</v>
       </c>
@@ -4246,7 +4222,7 @@
         <v>591.5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="104" t="s">
         <v>241</v>
       </c>
@@ -4268,7 +4244,7 @@
       <c r="G49" s="105">
         <v>777</v>
       </c>
-      <c r="H49" s="121">
+      <c r="H49" s="120">
         <v>1810</v>
       </c>
       <c r="I49" s="105">
@@ -4277,13 +4253,13 @@
       <c r="J49" s="105">
         <v>135.15</v>
       </c>
-      <c r="K49" s="125">
+      <c r="K49" s="124">
         <v>411</v>
       </c>
       <c r="L49" s="105">
         <v>665</v>
       </c>
-      <c r="M49" s="112">
+      <c r="M49" s="111">
         <v>168.75</v>
       </c>
     </row>
@@ -4408,7 +4384,7 @@
       </c>
       <c r="M52" s="32"/>
     </row>
-    <row r="53" spans="1:13" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="104" t="s">
         <v>71</v>
       </c>
@@ -4430,7 +4406,7 @@
       <c r="G53" s="105">
         <v>500</v>
       </c>
-      <c r="H53" s="121">
+      <c r="H53" s="120">
         <v>418.1</v>
       </c>
       <c r="I53" s="105">
@@ -4439,13 +4415,13 @@
       <c r="J53" s="105">
         <v>805</v>
       </c>
-      <c r="K53" s="125">
+      <c r="K53" s="124">
         <v>440</v>
       </c>
       <c r="L53" s="105">
         <v>565</v>
       </c>
-      <c r="M53" s="112">
+      <c r="M53" s="111">
         <v>556</v>
       </c>
     </row>
@@ -4724,8 +4700,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="114" t="s">
+    <row r="61" spans="1:13" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="113" t="s">
         <v>244</v>
       </c>
       <c r="B61" s="107">
@@ -4746,7 +4722,7 @@
       <c r="G61" s="107">
         <v>408</v>
       </c>
-      <c r="H61" s="124">
+      <c r="H61" s="123">
         <v>13441</v>
       </c>
       <c r="I61" s="107">
@@ -4755,13 +4731,13 @@
       <c r="J61" s="107">
         <v>510.1</v>
       </c>
-      <c r="K61" s="126">
+      <c r="K61" s="125">
         <v>1120</v>
       </c>
       <c r="L61" s="107">
         <v>2966</v>
       </c>
-      <c r="M61" s="115">
+      <c r="M61" s="114">
         <v>1170</v>
       </c>
     </row>
@@ -4947,7 +4923,7 @@
       <c r="C71">
         <v>2011</v>
       </c>
-      <c r="D71" s="111" t="s">
+      <c r="D71" s="110" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5003,11 +4979,11 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5791,7 +5767,7 @@
   </sheetPr>
   <dimension ref="A1:X378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I113" sqref="I113"/>
     </sheetView>
@@ -15599,7 +15575,7 @@
   <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15614,8 +15590,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="140"/>
-      <c r="B1" s="141"/>
+      <c r="A1" s="136"/>
+      <c r="B1" s="137"/>
       <c r="C1" s="108"/>
       <c r="D1" s="108"/>
       <c r="E1" s="108"/>
@@ -15670,18 +15646,18 @@
       <c r="AD1" s="11"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="129" t="s">
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="128" t="s">
         <v>541</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="128" t="s">
         <v>566</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="128" t="s">
         <v>560</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="109" t="s">
         <v>507</v>
       </c>
       <c r="G2" s="27" t="s">
@@ -15761,19 +15737,19 @@
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="141" t="s">
         <v>549</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="141" t="s">
         <v>567</v>
       </c>
-      <c r="E3" s="130" t="s">
+      <c r="E3" s="141" t="s">
         <v>561</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="133" t="s">
         <v>514</v>
       </c>
       <c r="G3" s="4">
@@ -15830,16 +15806,16 @@
       <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="135" t="s">
         <v>543</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="135" t="s">
         <v>564</v>
       </c>
-      <c r="F4" s="136" t="s">
+      <c r="F4" s="133" t="s">
         <v>508</v>
       </c>
       <c r="G4" s="4">
@@ -15920,16 +15896,16 @@
       <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="135" t="s">
         <v>551</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="E5" s="130" t="s">
+      <c r="E5" s="135" t="s">
         <v>564</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="133" t="s">
         <v>518</v>
       </c>
       <c r="H5" s="3"/>
@@ -15981,16 +15957,16 @@
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="133" t="s">
         <v>563</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="133" t="s">
         <v>567</v>
       </c>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="133" t="s">
         <v>562</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="133" t="s">
         <v>516</v>
       </c>
       <c r="G6" s="9"/>
@@ -16047,16 +16023,16 @@
       <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="135" t="s">
         <v>552</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="135" t="s">
         <v>561</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="140" t="s">
         <v>515</v>
       </c>
       <c r="G7" s="1"/>
@@ -16123,16 +16099,16 @@
       <c r="B8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="133" t="s">
         <v>559</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="133" t="s">
         <v>567</v>
       </c>
-      <c r="E8" s="135" t="s">
+      <c r="E8" s="133" t="s">
         <v>561</v>
       </c>
-      <c r="F8" s="136" t="s">
+      <c r="F8" s="133" t="s">
         <v>517</v>
       </c>
       <c r="G8" s="9"/>
@@ -16185,16 +16161,16 @@
       <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="135" t="s">
         <v>545</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="E9" s="135" t="s">
         <v>561</v>
       </c>
-      <c r="F9" s="136" t="s">
+      <c r="F9" s="133" t="s">
         <v>511</v>
       </c>
       <c r="G9" s="9">
@@ -16263,16 +16239,16 @@
       <c r="B10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="135" t="s">
         <v>544</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="E10" s="139" t="s">
+      <c r="E10" s="135" t="s">
         <v>562</v>
       </c>
-      <c r="F10" s="136" t="s">
+      <c r="F10" s="133" t="s">
         <v>509</v>
       </c>
       <c r="G10" s="9">
@@ -16330,19 +16306,19 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="135" t="s">
         <v>557</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="135" t="s">
         <v>562</v>
       </c>
-      <c r="F11" s="136" t="s">
+      <c r="F11" s="133" t="s">
         <v>558</v>
       </c>
       <c r="G11" s="9"/>
@@ -16379,16 +16355,16 @@
       <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="135" t="s">
         <v>546</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="E12" s="134" t="s">
+      <c r="E12" s="135" t="s">
         <v>561</v>
       </c>
-      <c r="F12" s="138" t="s">
+      <c r="F12" s="134" t="s">
         <v>510</v>
       </c>
       <c r="G12" s="12">
@@ -16465,16 +16441,16 @@
       <c r="B13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="135" t="s">
         <v>548</v>
       </c>
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="E13" s="134" t="s">
+      <c r="E13" s="135" t="s">
         <v>565</v>
       </c>
-      <c r="F13" s="138" t="s">
+      <c r="F13" s="134" t="s">
         <v>513</v>
       </c>
       <c r="G13" s="12">
@@ -16535,16 +16511,16 @@
       <c r="B14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="135" t="s">
         <v>547</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="E14" s="130" t="s">
+      <c r="E14" s="135" t="s">
         <v>562</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="130" t="s">
         <v>512</v>
       </c>
       <c r="G14" s="28">
@@ -16596,22 +16572,22 @@
       <c r="A15" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="142" t="s">
         <v>554</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="135" t="s">
         <v>550</v>
       </c>
-      <c r="D15" s="134" t="s">
+      <c r="D15" s="135" t="s">
         <v>568</v>
       </c>
-      <c r="E15" s="134" t="s">
+      <c r="E15" s="135" t="s">
         <v>561</v>
       </c>
-      <c r="H15" s="132">
+      <c r="H15" s="131">
         <v>129.6</v>
       </c>
-      <c r="L15" s="133">
+      <c r="L15" s="132">
         <v>70</v>
       </c>
       <c r="N15">
@@ -16620,13 +16596,13 @@
       <c r="P15">
         <v>118</v>
       </c>
-      <c r="V15" s="133">
+      <c r="V15" s="132">
         <v>78</v>
       </c>
       <c r="X15">
         <v>42</v>
       </c>
-      <c r="AB15" s="133">
+      <c r="AB15" s="132">
         <v>23</v>
       </c>
       <c r="AD15">
@@ -16634,16 +16610,16 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="142" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="135" t="s">
         <v>553</v>
       </c>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="135" t="s">
         <v>568</v>
       </c>
-      <c r="E16" s="134" t="s">
+      <c r="E16" s="135" t="s">
         <v>561</v>
       </c>
       <c r="J16">
@@ -16651,16 +16627,16 @@
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="135" t="s">
         <v>556</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="135" t="s">
         <v>568</v>
       </c>
-      <c r="E17" s="134" t="s">
+      <c r="E17" s="135" t="s">
         <v>561</v>
       </c>
       <c r="R17">
@@ -16668,16 +16644,16 @@
       </c>
     </row>
     <row r="18" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="143" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="140" t="s">
         <v>555</v>
       </c>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="140" t="s">
         <v>568</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="E18" s="140" t="s">
         <v>561</v>
       </c>
       <c r="T18" s="1">
@@ -16688,22 +16664,22 @@
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
       <c r="G20" s="58"/>
       <c r="H20" s="55"/>
       <c r="K20" s="57"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
       <c r="G21" s="57"/>
       <c r="K21" s="57"/>
     </row>
